--- a/Results/new.xlsx
+++ b/Results/new.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="0" windowWidth="30100" windowHeight="22500" activeTab="4"/>
+    <workbookView xWindow="40620" yWindow="0" windowWidth="30100" windowHeight="22500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Naive" sheetId="1" r:id="rId1"/>
@@ -16027,7 +16027,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -16049,6 +16049,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -16090,10 +16096,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -30192,9 +30199,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="43.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -30227,61 +30239,61 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>4.6096121942097087E-7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>11.462765957446809</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.98838437170010562</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>117</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>6.5532735439787684E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5.8714932126696828</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.75184794086589224</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>89</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>507</v>
       </c>
     </row>
@@ -30490,177 +30502,177 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3.7585893283325393E-8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>7.2391304347826084</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>2.6610348468848999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>15</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>245</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="3" customFormat="1">
+      <c r="A15" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>6.089280874467289E-4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>8.2190741209208191</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.69512747020666765</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>64</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" s="3" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>8.219280644438593E-4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>4.5056497175141246</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2.0093528435661487</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>185</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>2.2540928661464637E-3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>4.9182582123758598</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>1.3576708402473978</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+    <row r="18" spans="1:9" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>2.2598019503367382E-3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>4.251187084520418</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>1.8355709760144818</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>169</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+    <row r="19" spans="1:9" s="3" customFormat="1">
+      <c r="A19" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>9.5222096766853608E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>3.2075117370892019</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>2.3895006788354203</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>7</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>220</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>542</v>
       </c>
     </row>
@@ -30869,467 +30881,467 @@
         <v>481</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+    <row r="29" spans="1:9" s="3" customFormat="1">
+      <c r="A29" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>4.6290483237417442E-7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>11.415882352941177</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.98657414391310905</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>9</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>109</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+    <row r="30" spans="1:9" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>7.6169816863748757E-5</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>9.7522522522522515</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>0.72409111479861221</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>6</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>80</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+    <row r="31" spans="1:9" s="3" customFormat="1">
+      <c r="A31" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>1.2069972720747493E-4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>7.2204988807163417</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1.1313923668728314</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>125</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>1.4714999422697138E-4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>8.5780423280423275</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0.81460250414843871</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>6</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>90</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+    <row r="33" spans="1:9" s="3" customFormat="1">
+      <c r="A33" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>5.7940967673995164E-4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>8.3201024327784889</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.68788655905868157</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>5</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>76</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+    <row r="34" spans="1:9" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>1.1089204868875841E-3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>5.7279999999999998</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>1.1856992004827274</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>6</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>131</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>1.6750180626298977E-3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>8.7816711590296492</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>0.51591491929401112</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>57</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>1.9142010846550696E-3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>6.2620889748549322</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>0.89606275456328255</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>5</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>99</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>2.7207227713944935E-3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>7.6206088992974239</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>0.58832403077387241</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>4</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>65</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+    <row r="38" spans="1:9" s="3" customFormat="1">
+      <c r="A38" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>4.4145740420619686E-3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>5.1019762845849801</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>1.0861366721979182</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>120</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+    <row r="39" spans="1:9" s="3" customFormat="1">
+      <c r="A39" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>4.9030360035976729E-3</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>4.9699537750385208</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>1.1132900890028663</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>5</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>123</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+    <row r="40" spans="1:9" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>5.2537282812526662E-3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>6.269305019305019</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>0.70598883692864689</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>78</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>6.2462148993568502E-3</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>3.9664804469273744</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>1.6744607029717906</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>6</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>185</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+    <row r="42" spans="1:9" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>7.7192905295587061E-3</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>5.5817555938037868</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>0.78744908734349073</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>4</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>87</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+    <row r="43" spans="1:9" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>7.7192905295587061E-3</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>5.5817555938037868</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0.78744908734349073</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>4</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>87</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+    <row r="44" spans="1:9" s="3" customFormat="1">
+      <c r="A44" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>9.0391906341013191E-3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>3.6512027491408934</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>1.8102277869965304</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>6</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="3" t="s">
         <v>636</v>
       </c>
     </row>
@@ -31783,7 +31795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
